--- a/Customer-Order-OM_Schema_Abstract_Resource/dataset2/Customer_Order_authentic_dataset_nospace.xlsx
+++ b/Customer-Order-OM_Schema_Abstract_Resource/dataset2/Customer_Order_authentic_dataset_nospace.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rashedhasan/Desktop/UNL/Research/Object relational mapping/Step 5 - Abstraction/OM-Solution_Mapping/OM-ML_Research/Customer-Order-OM_Schema_Abstract_Resource/dataset2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C6A5D10D-D706-F94D-AC05-A3B64ECD43A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{200D60EA-6DC7-9842-A684-0F9461046C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="28800" windowHeight="15980" xr2:uid="{249923C2-717E-F44B-9D41-3A037F7CDE74}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="28800" windowHeight="15980" xr2:uid="{249923C2-717E-F44B-9D41-3A037F7CDE74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -96,10 +96,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,8 +139,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ADAEFFA-9784-CE4C-BCBC-42463A0ABD42}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A7" sqref="A7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,7 +469,7 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -461,67 +477,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
